--- a/data/trans_orig/P6707-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P6707-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>19162</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12052</v>
+        <v>11968</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30663</v>
+        <v>30307</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06390082633555076</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04018891317738294</v>
+        <v>0.0399098317344348</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1022528478877502</v>
+        <v>0.1010666877698551</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -764,19 +764,19 @@
         <v>21845</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14356</v>
+        <v>13677</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34362</v>
+        <v>32106</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.113005338534282</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07426445314350799</v>
+        <v>0.07075111172399902</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1777584755672204</v>
+        <v>0.1660874016532055</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>37</v>
@@ -785,19 +785,19 @@
         <v>41007</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29768</v>
+        <v>27645</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56261</v>
+        <v>55529</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08314777936078749</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06035971004503256</v>
+        <v>0.05605365722032819</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1140777812668866</v>
+        <v>0.1125943649688782</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>14890</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8213</v>
+        <v>8043</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25776</v>
+        <v>26437</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04965357386603162</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02738838711001836</v>
+        <v>0.02682283850877926</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08595760033220153</v>
+        <v>0.08816105574917175</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -835,19 +835,19 @@
         <v>15646</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8767</v>
+        <v>9563</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24396</v>
+        <v>25807</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08093979393735271</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04535074859534512</v>
+        <v>0.04947006308548151</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1262038922358342</v>
+        <v>0.133504351060387</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>29</v>
@@ -856,19 +856,19 @@
         <v>30536</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20643</v>
+        <v>20488</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>44650</v>
+        <v>44024</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06191648782418094</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04185739606000347</v>
+        <v>0.04154325123259831</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09053440120652444</v>
+        <v>0.08926540532067501</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>56431</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>42883</v>
+        <v>43919</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>72172</v>
+        <v>71481</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.188182857240987</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1430036917702402</v>
+        <v>0.1464572655423775</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2406740528404999</v>
+        <v>0.2383711157993132</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>39</v>
@@ -906,19 +906,19 @@
         <v>40760</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>30112</v>
+        <v>29308</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>55302</v>
+        <v>52942</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2108551034522638</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1557749541069739</v>
+        <v>0.1516158228200487</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.286085908940463</v>
+        <v>0.2738752006219736</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>93</v>
@@ -927,19 +927,19 @@
         <v>97191</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>80160</v>
+        <v>81085</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>116242</v>
+        <v>118002</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1970694470525099</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1625362125727624</v>
+        <v>0.1644112785741297</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2356989373962447</v>
+        <v>0.239267879694582</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>82147</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>67113</v>
+        <v>66248</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>99641</v>
+        <v>98334</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2739378848003211</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2238045858389606</v>
+        <v>0.2209200813128034</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3322769213396161</v>
+        <v>0.3279177744363233</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -977,19 +977,19 @@
         <v>43203</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31550</v>
+        <v>31020</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>57141</v>
+        <v>55941</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2234941815222484</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1632105417844365</v>
+        <v>0.1604689813467415</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2955967185466482</v>
+        <v>0.2893915601150007</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>114</v>
@@ -998,19 +998,19 @@
         <v>125350</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>107525</v>
+        <v>106681</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>149477</v>
+        <v>144885</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2541660238462247</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.218023848189227</v>
+        <v>0.2163117033658388</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.303088355863161</v>
+        <v>0.2937761507722271</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>127244</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>109003</v>
+        <v>109756</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>146751</v>
+        <v>145471</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4243248577571095</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3634956265278447</v>
+        <v>0.3660070498449849</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4893765708238621</v>
+        <v>0.4851064150146892</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>64</v>
@@ -1048,19 +1048,19 @@
         <v>71853</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>57681</v>
+        <v>57734</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>86284</v>
+        <v>86590</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.371705582553853</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2983905640903614</v>
+        <v>0.2986673795299626</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4463548324342495</v>
+        <v>0.4479424492774386</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>182</v>
@@ -1069,19 +1069,19 @@
         <v>199097</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>175676</v>
+        <v>178867</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>221718</v>
+        <v>224117</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.403700261916297</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3562105206040111</v>
+        <v>0.3626806416719727</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.449567902223887</v>
+        <v>0.4544306502246594</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>45369</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32280</v>
+        <v>32851</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60479</v>
+        <v>60380</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1768220634264253</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1258104322415091</v>
+        <v>0.1280336919881991</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2357145733559024</v>
+        <v>0.2353287202614667</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -1194,19 +1194,19 @@
         <v>41741</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30236</v>
+        <v>30481</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53471</v>
+        <v>55044</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2570061069662675</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1861645058630789</v>
+        <v>0.1876744882757022</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3292242141808423</v>
+        <v>0.3389088169526112</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>76</v>
@@ -1215,19 +1215,19 @@
         <v>87110</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>71663</v>
+        <v>70385</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>110056</v>
+        <v>105053</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2079037774388864</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1710369675392877</v>
+        <v>0.167986578483312</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2626682444650951</v>
+        <v>0.2507284457515174</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>18846</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10540</v>
+        <v>10929</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30774</v>
+        <v>30043</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07345130390719577</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04107945599508728</v>
+        <v>0.04259507977606234</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1199377636802691</v>
+        <v>0.117090212907844</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -1265,19 +1265,19 @@
         <v>12936</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6970</v>
+        <v>7161</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>22090</v>
+        <v>21608</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07965022433257042</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04291544784252577</v>
+        <v>0.04409345309931922</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1360122663252142</v>
+        <v>0.1330432590456346</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>28</v>
@@ -1286,19 +1286,19 @@
         <v>31782</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>20485</v>
+        <v>21221</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>44439</v>
+        <v>47017</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07585418936098014</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04889005353386201</v>
+        <v>0.05064679625505214</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1060624054769383</v>
+        <v>0.1122143851895762</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>61587</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>48245</v>
+        <v>47854</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>77534</v>
+        <v>75796</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2400324668194655</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1880335102225191</v>
+        <v>0.1865061808677171</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3021852644997322</v>
+        <v>0.2954099768235918</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>36</v>
@@ -1336,19 +1336,19 @@
         <v>40874</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>29289</v>
+        <v>30113</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>52467</v>
+        <v>52821</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.251662692148155</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.180337864391205</v>
+        <v>0.1854112800386405</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.32304245583459</v>
+        <v>0.3252257938100633</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>93</v>
@@ -1357,19 +1357,19 @@
         <v>102461</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>83578</v>
+        <v>84401</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>122192</v>
+        <v>120895</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2445406871786345</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1994744275303347</v>
+        <v>0.2014393717695731</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2916337096759807</v>
+        <v>0.2885382315389725</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>68243</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53055</v>
+        <v>54540</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83764</v>
+        <v>84670</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2659716406449308</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2067768907050665</v>
+        <v>0.212566603177429</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3264644709617464</v>
+        <v>0.3299972215526777</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -1407,19 +1407,19 @@
         <v>29434</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20570</v>
+        <v>20859</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40422</v>
+        <v>42568</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1812268471655721</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1266516651108943</v>
+        <v>0.1284303386260973</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2488847702486439</v>
+        <v>0.2620947835423373</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>92</v>
@@ -1428,19 +1428,19 @@
         <v>97676</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>79558</v>
+        <v>80608</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>116362</v>
+        <v>117159</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2331220446568998</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1898786822484693</v>
+        <v>0.192385081390862</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2777188034126286</v>
+        <v>0.2796203389099853</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>62534</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>47385</v>
+        <v>48577</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>77784</v>
+        <v>79604</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2437225252019826</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1846808312863799</v>
+        <v>0.1893275516412389</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3031583704063278</v>
+        <v>0.3102526078726463</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>33</v>
@@ -1478,19 +1478,19 @@
         <v>37429</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>27360</v>
+        <v>26762</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>51251</v>
+        <v>49708</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.230454129387435</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1684595663217615</v>
+        <v>0.164775205478242</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3155573423922738</v>
+        <v>0.3060558970226375</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>89</v>
@@ -1499,19 +1499,19 @@
         <v>99963</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>83517</v>
+        <v>82780</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>122784</v>
+        <v>120817</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2385793013645992</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1993288979687532</v>
+        <v>0.1975692730469797</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2930469887859155</v>
+        <v>0.2883510703105839</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>32080</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22517</v>
+        <v>22481</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45184</v>
+        <v>44488</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1147095796107683</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0805166587631253</v>
+        <v>0.08038651013245292</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1615666476525769</v>
+        <v>0.15908020147329</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1624,19 +1624,19 @@
         <v>11176</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5902</v>
+        <v>6195</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18201</v>
+        <v>19874</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1029221707694451</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05435387601701564</v>
+        <v>0.05704757524221517</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1676145698354626</v>
+        <v>0.1830147681885986</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -1645,19 +1645,19 @@
         <v>43256</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>32282</v>
+        <v>29938</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>58231</v>
+        <v>56395</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1114127429738616</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08314711442021455</v>
+        <v>0.07710956719237828</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1499843270074881</v>
+        <v>0.1452549597699488</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>21215</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12994</v>
+        <v>13375</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>32141</v>
+        <v>31233</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07585993808722571</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04646442308083978</v>
+        <v>0.04782754782915741</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1149281757337875</v>
+        <v>0.111682438609438</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6747</v>
+        <v>6611</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01779893326290807</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06212914507432022</v>
+        <v>0.06087983059176363</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>22</v>
@@ -1716,19 +1716,19 @@
         <v>23148</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14348</v>
+        <v>14751</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>33768</v>
+        <v>33695</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05962077556582653</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03695663687261458</v>
+        <v>0.03799317364653334</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08697559820552106</v>
+        <v>0.08678577398618904</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>60083</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>47749</v>
+        <v>46601</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>76113</v>
+        <v>75076</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2148442514294573</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1707392054968346</v>
+        <v>0.1666331050318761</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2721628991638984</v>
+        <v>0.2684530562833097</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>16</v>
@@ -1766,19 +1766,19 @@
         <v>17241</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>10277</v>
+        <v>10173</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>26159</v>
+        <v>26232</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1587678528703619</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09464312172123363</v>
+        <v>0.09368153388244999</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2409000109351054</v>
+        <v>0.2415727072999352</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>76</v>
@@ -1787,19 +1787,19 @@
         <v>77324</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>62428</v>
+        <v>62297</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>93323</v>
+        <v>93748</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1991601661716958</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1607927021047292</v>
+        <v>0.1604552475751554</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2403679939467619</v>
+        <v>0.2414624348322943</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>52280</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>40492</v>
+        <v>40143</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>66353</v>
+        <v>66602</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1869404383425802</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1447892244378534</v>
+        <v>0.1435425253658571</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2372621445494774</v>
+        <v>0.238152657369144</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -1837,19 +1837,19 @@
         <v>19892</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12484</v>
+        <v>12564</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29855</v>
+        <v>30316</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1831810254755927</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1149666445813046</v>
+        <v>0.1157035344710433</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2749356525243341</v>
+        <v>0.279181415787869</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>72</v>
@@ -1858,19 +1858,19 @@
         <v>72171</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>57766</v>
+        <v>59357</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>89015</v>
+        <v>90177</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1858889629725487</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1487868256389599</v>
+        <v>0.1528847381760348</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2292723299611181</v>
+        <v>0.232266082302443</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>114002</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>97271</v>
+        <v>97661</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>131253</v>
+        <v>130918</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4076457925299684</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3478175169428346</v>
+        <v>0.3492120597277399</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4693318667830553</v>
+        <v>0.4681330658815398</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>55</v>
@@ -1908,19 +1908,19 @@
         <v>58349</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>48117</v>
+        <v>45986</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>69382</v>
+        <v>68344</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5373300176216922</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.443110475893693</v>
+        <v>0.4234839470357879</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6389308778016146</v>
+        <v>0.6293784022142158</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>164</v>
@@ -1929,19 +1929,19 @@
         <v>172351</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>153439</v>
+        <v>153639</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>193563</v>
+        <v>191861</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4439173523160673</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3952054545311584</v>
+        <v>0.3957206147920043</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4985520573835326</v>
+        <v>0.4941692159795941</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>88553</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>70472</v>
+        <v>72474</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>105300</v>
+        <v>109421</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2093867585749728</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1666321436071331</v>
+        <v>0.1713658496940557</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2489851582754627</v>
+        <v>0.2587292089696867</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>57</v>
@@ -2054,19 +2054,19 @@
         <v>59318</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>46233</v>
+        <v>46695</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>72359</v>
+        <v>74311</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2012193064395306</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1568325601186332</v>
+        <v>0.1583978308524545</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.245457287361182</v>
+        <v>0.2520782531471977</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>135</v>
@@ -2075,19 +2075,19 @@
         <v>147872</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>125474</v>
+        <v>125157</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>172334</v>
+        <v>171218</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2060320456643275</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1748252786436937</v>
+        <v>0.1743832490657884</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2401155383739014</v>
+        <v>0.2385602609731816</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>44332</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>32907</v>
+        <v>31682</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>59430</v>
+        <v>58339</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1048230385000651</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07781048638608236</v>
+        <v>0.07491229593099109</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1405243233408983</v>
+        <v>0.1379448757656559</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>34</v>
@@ -2125,19 +2125,19 @@
         <v>35257</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>24571</v>
+        <v>24879</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>47848</v>
+        <v>48361</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1195988701372183</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08335007043688747</v>
+        <v>0.08439478394811004</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1623104164302891</v>
+        <v>0.1640498683007226</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>76</v>
@@ -2146,19 +2146,19 @@
         <v>79589</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>65505</v>
+        <v>63490</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>100232</v>
+        <v>98896</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1108920882277737</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09126952277250795</v>
+        <v>0.08846117463689435</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1396554223350625</v>
+        <v>0.137793155030273</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>94623</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>78500</v>
+        <v>79808</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>114704</v>
+        <v>113884</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2237387692214765</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1856159441534789</v>
+        <v>0.1887081048210804</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2712211178670055</v>
+        <v>0.2692805448472179</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>66</v>
@@ -2196,19 +2196,19 @@
         <v>71389</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>56757</v>
+        <v>56543</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>86740</v>
+        <v>88037</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2421656014183997</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.19253244872657</v>
+        <v>0.1918042352609187</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2942388718143406</v>
+        <v>0.2986402214492873</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>157</v>
@@ -2217,19 +2217,19 @@
         <v>166012</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>145217</v>
+        <v>144751</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>189951</v>
+        <v>188754</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2313074370077328</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2023330670175624</v>
+        <v>0.2016839580676085</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.264661599991289</v>
+        <v>0.2629934229009134</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>73710</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>59714</v>
+        <v>58113</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>92589</v>
+        <v>91805</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1742891646662105</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.14119575603669</v>
+        <v>0.1374091080960286</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.218928226628154</v>
+        <v>0.2170745087217687</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>51</v>
@@ -2267,19 +2267,19 @@
         <v>54611</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>41809</v>
+        <v>41322</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>69691</v>
+        <v>68888</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1852515228092663</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.141824704099078</v>
+        <v>0.1401716493632438</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2364071063008106</v>
+        <v>0.2336812317248468</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>121</v>
@@ -2288,19 +2288,19 @@
         <v>128321</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>108910</v>
+        <v>106663</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>150656</v>
+        <v>150795</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1787918619313761</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1517456266694169</v>
+        <v>0.1486147991903422</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2099116362425756</v>
+        <v>0.2101050924436234</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>121700</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>103974</v>
+        <v>103902</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>141673</v>
+        <v>140290</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2877622690372751</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2458495881976009</v>
+        <v>0.2456777457513486</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3349881776063321</v>
+        <v>0.3317197493545439</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>69</v>
@@ -2338,19 +2338,19 @@
         <v>74219</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>59904</v>
+        <v>59202</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>90981</v>
+        <v>91367</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2517646991955851</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2032049196959733</v>
+        <v>0.2008235826956369</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3086257972641832</v>
+        <v>0.3099340599840769</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>186</v>
@@ -2359,19 +2359,19 @@
         <v>195919</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>170614</v>
+        <v>172557</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>219212</v>
+        <v>220852</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2729765671687899</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2377189907659541</v>
+        <v>0.2404270062145864</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.305431656823216</v>
+        <v>0.3077166763527318</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>30582</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>21454</v>
+        <v>21575</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>41872</v>
+        <v>41549</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2044016351861243</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1433923426903648</v>
+        <v>0.1442044210146207</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2798641070414315</v>
+        <v>0.2777061056668713</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>43</v>
@@ -2484,19 +2484,19 @@
         <v>46767</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>35536</v>
+        <v>35511</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>60506</v>
+        <v>57842</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2691249711511055</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2044964039200833</v>
+        <v>0.2043520273630906</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3481873855517491</v>
+        <v>0.3328551302346171</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>72</v>
@@ -2505,19 +2505,19 @@
         <v>77349</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>62956</v>
+        <v>62551</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>95509</v>
+        <v>93886</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2391809489113364</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.194676332938167</v>
+        <v>0.1934228866520223</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2953382528138097</v>
+        <v>0.2903170582880947</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>19481</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11963</v>
+        <v>12798</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>28879</v>
+        <v>28192</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1302053859707525</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07995878714594842</v>
+        <v>0.08554157435794825</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1930251404918811</v>
+        <v>0.1884327740843698</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>21</v>
@@ -2555,19 +2555,19 @@
         <v>22174</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>14447</v>
+        <v>13664</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>32751</v>
+        <v>32046</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.127604005886965</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08313627039456822</v>
+        <v>0.07862779531075104</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1884662939413255</v>
+        <v>0.184408111137085</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>40</v>
@@ -2576,19 +2576,19 @@
         <v>41655</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>30418</v>
+        <v>30764</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>55258</v>
+        <v>54516</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1288075251728864</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09405969356279928</v>
+        <v>0.09513031166057542</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1708717774567351</v>
+        <v>0.1685774758748452</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>43043</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>32263</v>
+        <v>32458</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>54850</v>
+        <v>55187</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2876920195084319</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.215641958462903</v>
+        <v>0.2169452582905753</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3666080470778992</v>
+        <v>0.3688586535266116</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>25</v>
@@ -2626,19 +2626,19 @@
         <v>27636</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>19074</v>
+        <v>18166</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>39079</v>
+        <v>39225</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1590307864342422</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1097649361335724</v>
+        <v>0.1045392174648604</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2248809803043791</v>
+        <v>0.2257254052898451</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>66</v>
@@ -2647,19 +2647,19 @@
         <v>70679</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>56392</v>
+        <v>57385</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>88706</v>
+        <v>87663</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2185554504078998</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1743782371376849</v>
+        <v>0.1774470560722576</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2742993088471226</v>
+        <v>0.2710742659372924</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>21588</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>13944</v>
+        <v>13726</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>31626</v>
+        <v>31190</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1442892693710535</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09319716476229635</v>
+        <v>0.09174341645363154</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2113837861592901</v>
+        <v>0.2084688025041032</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>33</v>
@@ -2697,19 +2697,19 @@
         <v>35453</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>25489</v>
+        <v>25258</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>47797</v>
+        <v>46606</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2040176776530949</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1466771853598684</v>
+        <v>0.1453491931047372</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2750492299196456</v>
+        <v>0.2681998539361771</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>54</v>
@@ -2718,19 +2718,19 @@
         <v>57041</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>43263</v>
+        <v>45026</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>70995</v>
+        <v>72901</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1763845410219556</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1337805120109532</v>
+        <v>0.1392304103065022</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2195333689141921</v>
+        <v>0.2254280310222535</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>34922</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>25081</v>
+        <v>23621</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>46844</v>
+        <v>45672</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2334116899636378</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1676383361414011</v>
+        <v>0.1578767619218159</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3130951111754302</v>
+        <v>0.3052606523085036</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>36</v>
@@ -2768,19 +2768,19 @@
         <v>41745</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>31545</v>
+        <v>29935</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>55912</v>
+        <v>54848</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2402225588745923</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1815271452018196</v>
+        <v>0.1722631018359176</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3217519403680107</v>
+        <v>0.315624769377255</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>67</v>
@@ -2789,19 +2789,19 @@
         <v>76667</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>58516</v>
+        <v>60709</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>92953</v>
+        <v>93669</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2370715344859218</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1809471391869574</v>
+        <v>0.1877264598806591</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2874325253459212</v>
+        <v>0.2896479774074978</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>215746</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>188745</v>
+        <v>187336</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>247306</v>
+        <v>249949</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.15315818042492</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1339902384819018</v>
+        <v>0.1329898121110396</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1755629212916059</v>
+        <v>0.1774390294407024</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>168</v>
@@ -2914,19 +2914,19 @@
         <v>180848</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>157616</v>
+        <v>156234</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>205588</v>
+        <v>207452</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1938597274390222</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1689562982404497</v>
+        <v>0.1674746139904257</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2203804227857263</v>
+        <v>0.2223781125896225</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>362</v>
@@ -2935,19 +2935,19 @@
         <v>396594</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>360544</v>
+        <v>362563</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>437090</v>
+        <v>434239</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1693739559693343</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1539782847423258</v>
+        <v>0.154840501394371</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1866690047602472</v>
+        <v>0.185451138872802</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>118763</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>97256</v>
+        <v>98639</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>140788</v>
+        <v>142669</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.08431011434494458</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.06904241070443373</v>
+        <v>0.07002385543446756</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09994550130185921</v>
+        <v>0.1012812470785872</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>85</v>
@@ -2985,19 +2985,19 @@
         <v>87947</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>71438</v>
+        <v>71349</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>106208</v>
+        <v>108558</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.09427443388356095</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.07657774764925117</v>
+        <v>0.07648252773478131</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1138495585103951</v>
+        <v>0.1163682602077485</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>195</v>
@@ -3006,19 +3006,19 @@
         <v>206710</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>180329</v>
+        <v>176899</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>234805</v>
+        <v>234700</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.08827996760470007</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.07701343793187457</v>
+        <v>0.07554872545549392</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1002785203245691</v>
+        <v>0.1002338307637813</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>315768</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>285596</v>
+        <v>284779</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>351180</v>
+        <v>349400</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2241641847812721</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2027450836705187</v>
+        <v>0.202165057603042</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2493035496994448</v>
+        <v>0.2480398524791573</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>182</v>
@@ -3056,19 +3056,19 @@
         <v>197898</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>172827</v>
+        <v>174873</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>225300</v>
+        <v>227227</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2121370902987804</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1852622879471943</v>
+        <v>0.1874549136950452</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.241509635264945</v>
+        <v>0.2435763110666559</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>485</v>
@@ -3077,19 +3077,19 @@
         <v>513666</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>472649</v>
+        <v>468880</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>554008</v>
+        <v>556897</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2193725078331704</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2018552462866929</v>
+        <v>0.2002453463588778</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2366013752712651</v>
+        <v>0.2378348711488343</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>297967</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>262625</v>
+        <v>266291</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>327433</v>
+        <v>331059</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2115273758258906</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1864382156088052</v>
+        <v>0.1890401075849519</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2324449499425462</v>
+        <v>0.235019089072518</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>169</v>
@@ -3127,19 +3127,19 @@
         <v>182593</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>156858</v>
+        <v>158911</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>206806</v>
+        <v>208608</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1957299883723649</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1681439733403884</v>
+        <v>0.1703446569508818</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.221685953755368</v>
+        <v>0.2236174077864126</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>453</v>
@@ -3148,19 +3148,19 @@
         <v>480560</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>439498</v>
+        <v>440792</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>519150</v>
+        <v>520097</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.205233588293791</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1876972768613834</v>
+        <v>0.1882498977708522</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2217144458438945</v>
+        <v>0.2221186902763645</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>460402</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>425303</v>
+        <v>424218</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>500275</v>
+        <v>498594</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3268401446229727</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3019231388439064</v>
+        <v>0.3011532015626841</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3551462966005015</v>
+        <v>0.353952688459733</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>257</v>
@@ -3198,19 +3198,19 @@
         <v>283594</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>255005</v>
+        <v>257672</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>314408</v>
+        <v>312502</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3039987600062716</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2733524739519005</v>
+        <v>0.2762117397747411</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3370290750920685</v>
+        <v>0.3349863885743609</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>688</v>
@@ -3219,19 +3219,19 @@
         <v>743996</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>701854</v>
+        <v>697708</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>790111</v>
+        <v>792921</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3177399802990041</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.299742232929421</v>
+        <v>0.2979714175041458</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3374341879493486</v>
+        <v>0.3386341554918751</v>
       </c>
     </row>
     <row r="39">
@@ -3564,19 +3564,19 @@
         <v>29239</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19516</v>
+        <v>20510</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41313</v>
+        <v>41425</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1059166980737775</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0706971045323869</v>
+        <v>0.07429733154780993</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1496547160258895</v>
+        <v>0.1500630718412341</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -3585,19 +3585,19 @@
         <v>34090</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23699</v>
+        <v>24629</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45985</v>
+        <v>46994</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1591680846411629</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1106527554034436</v>
+        <v>0.1149974144211878</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2147073508823811</v>
+        <v>0.219420529061417</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>59</v>
@@ -3606,19 +3606,19 @@
         <v>63328</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48330</v>
+        <v>49677</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>79943</v>
+        <v>79956</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1291815992566213</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09858658740868184</v>
+        <v>0.1013350987148468</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1630742331690702</v>
+        <v>0.1630999088734965</v>
       </c>
     </row>
     <row r="5">
@@ -3635,19 +3635,19 @@
         <v>32790</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22343</v>
+        <v>22661</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45528</v>
+        <v>44221</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1187816212818742</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08093679217828416</v>
+        <v>0.08208865583128153</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1649250690563655</v>
+        <v>0.1601889251792125</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -3656,19 +3656,19 @@
         <v>28137</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19378</v>
+        <v>18736</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>39815</v>
+        <v>39185</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1313767350147272</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09047560801510129</v>
+        <v>0.08748253297137595</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1859017201716893</v>
+        <v>0.1829575720802758</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>58</v>
@@ -3677,19 +3677,19 @@
         <v>60928</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>48062</v>
+        <v>47440</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>75911</v>
+        <v>77256</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1242842775556354</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09803937646574085</v>
+        <v>0.09677235688703517</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1548480015043065</v>
+        <v>0.157592267786493</v>
       </c>
     </row>
     <row r="6">
@@ -3706,19 +3706,19 @@
         <v>77828</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>63592</v>
+        <v>62548</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>94026</v>
+        <v>93337</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2819319683872991</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.230360958680177</v>
+        <v>0.2265783492612658</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3406101695761655</v>
+        <v>0.3381120785965668</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>51</v>
@@ -3727,19 +3727,19 @@
         <v>51730</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>40993</v>
+        <v>39394</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>65570</v>
+        <v>64631</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2415340786838544</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1914011078623443</v>
+        <v>0.1839364837828338</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3061546203990064</v>
+        <v>0.301770839060664</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>120</v>
@@ -3748,19 +3748,19 @@
         <v>129558</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>110485</v>
+        <v>111810</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>149890</v>
+        <v>152848</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2642826080132409</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2253754454789697</v>
+        <v>0.2280788136620729</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3057565525220631</v>
+        <v>0.3117892444874878</v>
       </c>
     </row>
     <row r="7">
@@ -3777,19 +3777,19 @@
         <v>58118</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45964</v>
+        <v>44768</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72897</v>
+        <v>73060</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2105311357875869</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1665035643237279</v>
+        <v>0.1621707734846955</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2640695436058604</v>
+        <v>0.2646605038777601</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>50</v>
@@ -3798,19 +3798,19 @@
         <v>50095</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>37754</v>
+        <v>38858</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64235</v>
+        <v>63396</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.233899174079935</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.176278157733591</v>
+        <v>0.1814317523362985</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2999202946295781</v>
+        <v>0.2960035009525047</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>105</v>
@@ -3819,19 +3819,19 @@
         <v>108213</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>90816</v>
+        <v>90345</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>129788</v>
+        <v>127871</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2207403554296039</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1852536157238572</v>
+        <v>0.1842919974548126</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2647516047035678</v>
+        <v>0.2608407070546949</v>
       </c>
     </row>
     <row r="8">
@@ -3848,19 +3848,19 @@
         <v>78078</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>64176</v>
+        <v>63372</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>93181</v>
+        <v>93662</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2828385764694622</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2324764640300306</v>
+        <v>0.2295631286897281</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3375462376590317</v>
+        <v>0.3392902437939703</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>47</v>
@@ -3869,19 +3869,19 @@
         <v>50121</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>38192</v>
+        <v>36963</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>63314</v>
+        <v>62915</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2340219275803204</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.178323200852635</v>
+        <v>0.1725840411673157</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2956179618295785</v>
+        <v>0.2937582307235193</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>119</v>
@@ -3890,19 +3890,19 @@
         <v>128200</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>109036</v>
+        <v>109314</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>150459</v>
+        <v>149547</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2615111597448984</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2224194914203374</v>
+        <v>0.2229872451886939</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.306917100708006</v>
+        <v>0.3050569898690308</v>
       </c>
     </row>
     <row r="9">
@@ -3994,19 +3994,19 @@
         <v>38422</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28109</v>
+        <v>27535</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51073</v>
+        <v>51125</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1579594520893988</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.115563973403616</v>
+        <v>0.1132025956149772</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2099701406802752</v>
+        <v>0.2101870786492902</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -4015,19 +4015,19 @@
         <v>43971</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33829</v>
+        <v>33817</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56896</v>
+        <v>57456</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2324352610201377</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1788219889194876</v>
+        <v>0.1787591716754535</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3007555106324877</v>
+        <v>0.3037166162869729</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>79</v>
@@ -4036,19 +4036,19 @@
         <v>82393</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>65921</v>
+        <v>65331</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>99025</v>
+        <v>98950</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1905418296952871</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1524482481108724</v>
+        <v>0.151083810893147</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2290061283287009</v>
+        <v>0.2288324638595582</v>
       </c>
     </row>
     <row r="11">
@@ -4065,19 +4065,19 @@
         <v>44904</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>32407</v>
+        <v>33203</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>58012</v>
+        <v>59939</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1846094059684274</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1332305365666546</v>
+        <v>0.1365057406050482</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2384980289719678</v>
+        <v>0.2464223514676497</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>27</v>
@@ -4086,19 +4086,19 @@
         <v>28735</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20335</v>
+        <v>19556</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>40693</v>
+        <v>39647</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1518934315369974</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1074939994651086</v>
+        <v>0.1033757880869345</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2151078358897341</v>
+        <v>0.2095755422060172</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>68</v>
@@ -4107,19 +4107,19 @@
         <v>73638</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>58585</v>
+        <v>58740</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>92460</v>
+        <v>89531</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1702965136618697</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1354829398810963</v>
+        <v>0.1358416159230713</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2138223990621654</v>
+        <v>0.2070502560427842</v>
       </c>
     </row>
     <row r="12">
@@ -4136,19 +4136,19 @@
         <v>70724</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>56574</v>
+        <v>56506</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>86053</v>
+        <v>85881</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.290761656162989</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2325896679202743</v>
+        <v>0.2323088074271181</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3537805741124208</v>
+        <v>0.3530745860347699</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>48</v>
@@ -4157,19 +4157,19 @@
         <v>48118</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>36324</v>
+        <v>36968</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>60819</v>
+        <v>60915</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2543569389308695</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1920126124139052</v>
+        <v>0.1954142578713407</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3214938550528079</v>
+        <v>0.3220035463732711</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>112</v>
@@ -4178,19 +4178,19 @@
         <v>118842</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>100963</v>
+        <v>100995</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>137933</v>
+        <v>138556</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2748349779499923</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2334882895946732</v>
+        <v>0.2335607063057834</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3189844153018926</v>
+        <v>0.3204252570194929</v>
       </c>
     </row>
     <row r="13">
@@ -4207,19 +4207,19 @@
         <v>49318</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36455</v>
+        <v>38014</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>63074</v>
+        <v>63428</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2027553294167631</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1498741114866161</v>
+        <v>0.1562826746753094</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2593117152941885</v>
+        <v>0.2607666891696573</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -4228,19 +4228,19 @@
         <v>39043</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29130</v>
+        <v>29232</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51187</v>
+        <v>52346</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2063832140341948</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1539811590906743</v>
+        <v>0.1545227932056089</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2705761576865193</v>
+        <v>0.2767056595180919</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>83</v>
@@ -4249,19 +4249,19 @@
         <v>88360</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>71641</v>
+        <v>71584</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>107429</v>
+        <v>107619</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2043424905125987</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1656774691314783</v>
+        <v>0.1655457207589668</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2484398058766233</v>
+        <v>0.2488804542752892</v>
       </c>
     </row>
     <row r="14">
@@ -4278,19 +4278,19 @@
         <v>39870</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>28255</v>
+        <v>28595</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>53736</v>
+        <v>53456</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1639141563624217</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.11616280479166</v>
+        <v>0.1175591159873874</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2209212723635435</v>
+        <v>0.2197697488138115</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -4299,19 +4299,19 @@
         <v>29309</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>19177</v>
+        <v>19055</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>40458</v>
+        <v>40156</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1549311544778005</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1013729612565756</v>
+        <v>0.1007260085557548</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2138631673191033</v>
+        <v>0.21227022631359</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>63</v>
@@ -4320,19 +4320,19 @@
         <v>69179</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>53851</v>
+        <v>54430</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>86364</v>
+        <v>85749</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1599841881802523</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.124536054346244</v>
+        <v>0.1258757101473475</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1997263949976202</v>
+        <v>0.1983024864238929</v>
       </c>
     </row>
     <row r="15">
@@ -4424,19 +4424,19 @@
         <v>18523</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11315</v>
+        <v>11136</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29518</v>
+        <v>30140</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08562721261603377</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05230746736993858</v>
+        <v>0.05147582356803415</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.136452208620406</v>
+        <v>0.1393259456542162</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6554</v>
+        <v>6346</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02765249263063896</v>
@@ -4457,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.100641404802038</v>
+        <v>0.09745956180628959</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -4466,19 +4466,19 @@
         <v>20324</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13183</v>
+        <v>12186</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>32270</v>
+        <v>30384</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07221352109125542</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04684156195626769</v>
+        <v>0.04329658583731318</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.11465843090543</v>
+        <v>0.107959505085554</v>
       </c>
     </row>
     <row r="17">
@@ -4495,19 +4495,19 @@
         <v>27153</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18484</v>
+        <v>18696</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>39346</v>
+        <v>40022</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1255194825867999</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08544620435147059</v>
+        <v>0.08642512664593904</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1818814752339979</v>
+        <v>0.1850082195633711</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4842</v>
+        <v>5606</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01698598467304275</v>
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07435092856739392</v>
+        <v>0.08609259588506746</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>26</v>
@@ -4537,19 +4537,19 @@
         <v>28259</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>18854</v>
+        <v>18505</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>40268</v>
+        <v>40002</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.100407936356183</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06699184013984801</v>
+        <v>0.06575019028106306</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.143077169675764</v>
+        <v>0.1421335045759161</v>
       </c>
     </row>
     <row r="18">
@@ -4566,19 +4566,19 @@
         <v>63646</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>49952</v>
+        <v>51301</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>77038</v>
+        <v>78278</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2942156108832218</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2309101271219973</v>
+        <v>0.2371468001250693</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3561215341505478</v>
+        <v>0.3618538714023882</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>12</v>
@@ -4587,19 +4587,19 @@
         <v>10957</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5988</v>
+        <v>6246</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17406</v>
+        <v>17814</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.168262456320259</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09194941194000114</v>
+        <v>0.09591682460756723</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2673011845679615</v>
+        <v>0.2735694382080234</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>72</v>
@@ -4608,19 +4608,19 @@
         <v>74603</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>59241</v>
+        <v>60692</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>89327</v>
+        <v>90720</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2650736544872972</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2104901815775155</v>
+        <v>0.2156467108763164</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3173884989447366</v>
+        <v>0.3223376714208323</v>
       </c>
     </row>
     <row r="19">
@@ -4637,19 +4637,19 @@
         <v>55884</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>43045</v>
+        <v>44349</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>69035</v>
+        <v>70077</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2583312651749027</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1989813422248995</v>
+        <v>0.2050128391020499</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3191272153926238</v>
+        <v>0.3239431446298779</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -4658,19 +4658,19 @@
         <v>20612</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13147</v>
+        <v>13344</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29285</v>
+        <v>29302</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3165336509811759</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2018984033877604</v>
+        <v>0.2049278781469005</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4497156200019317</v>
+        <v>0.4499900186511183</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>73</v>
@@ -4679,19 +4679,19 @@
         <v>76496</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>61686</v>
+        <v>62158</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>92002</v>
+        <v>93060</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2717976320570225</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2191779321486022</v>
+        <v>0.2208545635238936</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3268954191843824</v>
+        <v>0.3306544118299224</v>
       </c>
     </row>
     <row r="20">
@@ -4708,19 +4708,19 @@
         <v>51119</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>38930</v>
+        <v>38460</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>63914</v>
+        <v>64482</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2363064287390419</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1799609137736294</v>
+        <v>0.177790219948082</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2954513319331673</v>
+        <v>0.2980791726603073</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>30</v>
@@ -4729,19 +4729,19 @@
         <v>30642</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>22322</v>
+        <v>22583</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>38778</v>
+        <v>39038</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4705654153948834</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.342798971612136</v>
+        <v>0.3468086406910693</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5955078667212679</v>
+        <v>0.5995022727062385</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>78</v>
@@ -4750,19 +4750,19 @@
         <v>81761</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>67546</v>
+        <v>67648</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>98354</v>
+        <v>98091</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2905072560082419</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2399977290415907</v>
+        <v>0.2403626099987643</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3494637412923494</v>
+        <v>0.3485296691042944</v>
       </c>
     </row>
     <row r="21">
@@ -4854,19 +4854,19 @@
         <v>112444</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>93885</v>
+        <v>94917</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>132241</v>
+        <v>131167</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2305600010024599</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1925053371137584</v>
+        <v>0.1946212758589247</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2711508059890059</v>
+        <v>0.2689496551555661</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>84</v>
@@ -4875,19 +4875,19 @@
         <v>88216</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>73565</v>
+        <v>73797</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>106332</v>
+        <v>107307</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2417253112019743</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2015803140905289</v>
+        <v>0.2022158433530867</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2913663214776444</v>
+        <v>0.2940381709060846</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>191</v>
@@ -4896,19 +4896,19 @@
         <v>200660</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>175126</v>
+        <v>175976</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>225984</v>
+        <v>225774</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2353388937200019</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2053920345440363</v>
+        <v>0.2063889981923238</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2650401274125887</v>
+        <v>0.2647937730289557</v>
       </c>
     </row>
     <row r="23">
@@ -4925,19 +4925,19 @@
         <v>81703</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>65732</v>
+        <v>66328</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>99816</v>
+        <v>98649</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1675274055117464</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1347802648840344</v>
+        <v>0.1360017644963973</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2046667966043648</v>
+        <v>0.2022742998019358</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>50</v>
@@ -4946,19 +4946,19 @@
         <v>51156</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>38970</v>
+        <v>39314</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>65906</v>
+        <v>66623</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1401769027284371</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1067832061842961</v>
+        <v>0.1077267101256364</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1805924037303575</v>
+        <v>0.1825583113635739</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>129</v>
@@ -4967,19 +4967,19 @@
         <v>132860</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>113564</v>
+        <v>112167</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>157004</v>
+        <v>153602</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1558210474942188</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1331911381264564</v>
+        <v>0.1315518815494277</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1841383028232061</v>
+        <v>0.1801477777774998</v>
       </c>
     </row>
     <row r="24">
@@ -4996,19 +4996,19 @@
         <v>120010</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>102166</v>
+        <v>101695</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>139819</v>
+        <v>139860</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2460738044620737</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2094840955504479</v>
+        <v>0.2085187422305705</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2866909889163038</v>
+        <v>0.2867733130408933</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>104</v>
@@ -5017,19 +5017,19 @@
         <v>102170</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>86134</v>
+        <v>85587</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>119515</v>
+        <v>119282</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2799614862633523</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2360208954968631</v>
+        <v>0.2345209287932234</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3274915702244356</v>
+        <v>0.3268514159311441</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>216</v>
@@ -5038,19 +5038,19 @@
         <v>222180</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>198483</v>
+        <v>199045</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>249464</v>
+        <v>249846</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2605781570398958</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2327853418677363</v>
+        <v>0.2334446699454547</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2925776836096923</v>
+        <v>0.2930255259058193</v>
       </c>
     </row>
     <row r="25">
@@ -5067,19 +5067,19 @@
         <v>100898</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>84822</v>
+        <v>84082</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>119507</v>
+        <v>121031</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2068845907834227</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1739214158324477</v>
+        <v>0.1724055621598415</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2450421550365779</v>
+        <v>0.2481664017149688</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>78</v>
@@ -5088,19 +5088,19 @@
         <v>77957</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>62080</v>
+        <v>62905</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>94111</v>
+        <v>94708</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2136134484530111</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1701093027207762</v>
+        <v>0.1723694504116047</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.257878469599259</v>
+        <v>0.2595145029997378</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>175</v>
@@ -5109,19 +5109,19 @@
         <v>178854</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>157344</v>
+        <v>154760</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>204481</v>
+        <v>202923</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2097646262092159</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1845373167815331</v>
+        <v>0.1815065470533792</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2398206792520461</v>
+        <v>0.2379930983631752</v>
       </c>
     </row>
     <row r="26">
@@ -5138,19 +5138,19 @@
         <v>72645</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>56757</v>
+        <v>58721</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>88390</v>
+        <v>90609</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1489541982402973</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1163758076553829</v>
+        <v>0.1204034110836839</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1812379090956663</v>
+        <v>0.1857887022624769</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>44</v>
@@ -5159,19 +5159,19 @@
         <v>45444</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>34614</v>
+        <v>33804</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>59549</v>
+        <v>61054</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1245228513532253</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09484866990542527</v>
+        <v>0.09262876835725617</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1631731143719108</v>
+        <v>0.1672964742782841</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>112</v>
@@ -5180,19 +5180,19 @@
         <v>118089</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>100470</v>
+        <v>98718</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>142748</v>
+        <v>137905</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1384972755366676</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1178339612098718</v>
+        <v>0.1157790493469138</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.16741880644683</v>
+        <v>0.1617386638553766</v>
       </c>
     </row>
     <row r="27">
@@ -5284,19 +5284,19 @@
         <v>62140</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>49519</v>
+        <v>47725</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>75750</v>
+        <v>76638</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3219337297334308</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2565484114098653</v>
+        <v>0.2472508314511259</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3924423591732988</v>
+        <v>0.3970409988886701</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>43</v>
@@ -5305,19 +5305,19 @@
         <v>44831</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>34576</v>
+        <v>33738</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>58254</v>
+        <v>57164</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2268554478207504</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1749623636861288</v>
+        <v>0.1707201608198301</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2947802290085132</v>
+        <v>0.2892622846794249</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>98</v>
@@ -5326,19 +5326,19 @@
         <v>106971</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>89530</v>
+        <v>90451</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>126569</v>
+        <v>125107</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2738351200370635</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2291888255831014</v>
+        <v>0.2315468385310794</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3240042859782236</v>
+        <v>0.3202610191580599</v>
       </c>
     </row>
     <row r="29">
@@ -5355,19 +5355,19 @@
         <v>33800</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>24758</v>
+        <v>24048</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>46793</v>
+        <v>46584</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1751091555609467</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1282658824882325</v>
+        <v>0.1245869677825208</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2424226808669279</v>
+        <v>0.241340365522521</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>34</v>
@@ -5376,19 +5376,19 @@
         <v>34424</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>25060</v>
+        <v>25171</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>44849</v>
+        <v>45650</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1741923541385135</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1268087174906872</v>
+        <v>0.1273717924455119</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2269464655903436</v>
+        <v>0.2310020905064532</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>66</v>
@@ -5397,19 +5397,19 @@
         <v>68223</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>55996</v>
+        <v>54288</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>85260</v>
+        <v>86599</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1746453601189215</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1433436137848965</v>
+        <v>0.1389729565489821</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2182578224627341</v>
+        <v>0.2216858660906287</v>
       </c>
     </row>
     <row r="30">
@@ -5426,19 +5426,19 @@
         <v>48614</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>37504</v>
+        <v>36806</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>62027</v>
+        <v>61200</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2518594126251288</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1942970296561574</v>
+        <v>0.1906816416203861</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3213464717020524</v>
+        <v>0.3170619098585633</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>58</v>
@@ -5447,19 +5447,19 @@
         <v>59648</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>47495</v>
+        <v>47513</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>74450</v>
+        <v>72666</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.301831537755283</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2403379042511358</v>
+        <v>0.240427836959804</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3767331042084638</v>
+        <v>0.3677051252523068</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>103</v>
@@ -5468,19 +5468,19 @@
         <v>108262</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>91206</v>
+        <v>90799</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>127355</v>
+        <v>126156</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2771395259589053</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2334793248677144</v>
+        <v>0.2324370978030796</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3260163917483893</v>
+        <v>0.322947258941178</v>
       </c>
     </row>
     <row r="31">
@@ -5497,19 +5497,19 @@
         <v>18699</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>10631</v>
+        <v>11861</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>28369</v>
+        <v>28901</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.09687246817165016</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05507441895650995</v>
+        <v>0.06144743615131582</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1469713425235483</v>
+        <v>0.1497315021837952</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>32</v>
@@ -5518,19 +5518,19 @@
         <v>33059</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>23853</v>
+        <v>23199</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>44367</v>
+        <v>44496</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1672847426275259</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1207006755330468</v>
+        <v>0.1173926041683301</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2245067309156492</v>
+        <v>0.2251594021607388</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>49</v>
@@ -5539,19 +5539,19 @@
         <v>51757</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>38946</v>
+        <v>38676</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>65819</v>
+        <v>65543</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1324929320542119</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09969754626392241</v>
+        <v>0.09900708230158962</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1684896359756175</v>
+        <v>0.1677845201410225</v>
       </c>
     </row>
     <row r="32">
@@ -5568,19 +5568,19 @@
         <v>29769</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>20651</v>
+        <v>19953</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>41050</v>
+        <v>41438</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1542252339088435</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1069889551963217</v>
+        <v>0.1033740710279447</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2126691455335619</v>
+        <v>0.2146815379002685</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>25</v>
@@ -5589,19 +5589,19 @@
         <v>25658</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>17437</v>
+        <v>16974</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>36751</v>
+        <v>35649</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1298359176579272</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08823789465953473</v>
+        <v>0.08589463010180155</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1859699444953954</v>
+        <v>0.1803943965103493</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>52</v>
@@ -5610,19 +5610,19 @@
         <v>55427</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>41939</v>
+        <v>41662</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>70121</v>
+        <v>70218</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1418870618308977</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1073592529078658</v>
+        <v>0.1066513529951989</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1795030862577377</v>
+        <v>0.1797522809543457</v>
       </c>
     </row>
     <row r="33">
@@ -5714,19 +5714,19 @@
         <v>260768</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>231378</v>
+        <v>234069</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>294259</v>
+        <v>292406</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1841143085800278</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1633635579876818</v>
+        <v>0.1652632889524948</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.207760679478223</v>
+        <v>0.2064523322991978</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>205</v>
@@ -5735,19 +5735,19 @@
         <v>212908</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>187253</v>
+        <v>186892</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>239472</v>
+        <v>239183</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2065006562301105</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.181617415001354</v>
+        <v>0.1812678947750825</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2322646251012369</v>
+        <v>0.2319842799766765</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>445</v>
@@ -5756,19 +5756,19 @@
         <v>473676</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>432331</v>
+        <v>435856</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>516413</v>
+        <v>515527</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1935452522917621</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1766516913390244</v>
+        <v>0.1780919754394777</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.211007796404915</v>
+        <v>0.2106456659605407</v>
       </c>
     </row>
     <row r="35">
@@ -5785,19 +5785,19 @@
         <v>220350</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>193673</v>
+        <v>191754</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>246408</v>
+        <v>247748</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1555773088809818</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.136742023140585</v>
+        <v>0.1353874500068369</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.173975379222523</v>
+        <v>0.1749216573664992</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>140</v>
@@ -5806,19 +5806,19 @@
         <v>143558</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>122304</v>
+        <v>122490</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>168044</v>
+        <v>167669</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1392379163608454</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1186231079610744</v>
+        <v>0.1188038552689469</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1629862225332834</v>
+        <v>0.1626234032219195</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>347</v>
@@ -5827,19 +5827,19 @@
         <v>363908</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>323455</v>
+        <v>331948</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>398530</v>
+        <v>402466</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1486938326860265</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1321643936674828</v>
+        <v>0.1356348207394262</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1628403863272272</v>
+        <v>0.16444885824932</v>
       </c>
     </row>
     <row r="36">
@@ -5856,19 +5856,19 @@
         <v>380823</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>344826</v>
+        <v>351179</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>416542</v>
+        <v>414363</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2688787613293862</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2434629128890997</v>
+        <v>0.2479490444046545</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2940980999097297</v>
+        <v>0.2925594693764108</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>273</v>
@@ -5877,19 +5877,19 @@
         <v>272623</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>243785</v>
+        <v>245157</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>300275</v>
+        <v>301356</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2644181740107173</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2364479483400172</v>
+        <v>0.2377793680564814</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2912378256755263</v>
+        <v>0.2922869993132726</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>623</v>
@@ -5898,19 +5898,19 @@
         <v>653445</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>611922</v>
+        <v>611724</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>702445</v>
+        <v>701982</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2669996004863048</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2500329516366416</v>
+        <v>0.2499520288376584</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2870208527652174</v>
+        <v>0.2868318638396373</v>
       </c>
     </row>
     <row r="37">
@@ -5927,19 +5927,19 @@
         <v>282915</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>251919</v>
+        <v>254064</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>316382</v>
+        <v>314577</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1997512253316293</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1778666756585663</v>
+        <v>0.179381326593483</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2233802871174634</v>
+        <v>0.2221061998285959</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>216</v>
@@ -5948,19 +5948,19 @@
         <v>220765</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>194014</v>
+        <v>195198</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>248931</v>
+        <v>248402</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2141211119528079</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1881748777246652</v>
+        <v>0.1893230511773788</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2414397821439651</v>
+        <v>0.2409258652264762</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>485</v>
@@ -5969,19 +5969,19 @@
         <v>503680</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>465219</v>
+        <v>465216</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>544826</v>
+        <v>544449</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2058049860426955</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1900898907042832</v>
+        <v>0.1900884989867426</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2226175892094309</v>
+        <v>0.2224634372980008</v>
       </c>
     </row>
     <row r="38">
@@ -5998,19 +5998,19 @@
         <v>271481</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>243214</v>
+        <v>239191</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>304326</v>
+        <v>301991</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1916783958779749</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.171720407248871</v>
+        <v>0.1688799342428678</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2148684981368698</v>
+        <v>0.2132196326608463</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>173</v>
@@ -6019,19 +6019,19 @@
         <v>181175</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>154907</v>
+        <v>157366</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>204963</v>
+        <v>206128</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1757221414455188</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1502448191690765</v>
+        <v>0.1526302603208935</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1987944135270014</v>
+        <v>0.1999242037348545</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>424</v>
@@ -6040,19 +6040,19 @@
         <v>452656</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>415270</v>
+        <v>417606</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>494638</v>
+        <v>491801</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1849563284932112</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1696803814763009</v>
+        <v>0.1706349914376481</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2021104358984712</v>
+        <v>0.200951415902846</v>
       </c>
     </row>
     <row r="39">
@@ -6385,19 +6385,19 @@
         <v>19023</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10957</v>
+        <v>11730</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30153</v>
+        <v>29641</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1933090277976814</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.111341028835911</v>
+        <v>0.1192040151480418</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3064131879851663</v>
+        <v>0.3012121200512197</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -6406,19 +6406,19 @@
         <v>18503</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12026</v>
+        <v>12611</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26121</v>
+        <v>26766</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2140616212003749</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1391232512820059</v>
+        <v>0.1458996409833622</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3021956865628426</v>
+        <v>0.3096598391821598</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -6427,19 +6427,19 @@
         <v>37525</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27709</v>
+        <v>27999</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49982</v>
+        <v>50823</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2030135471556636</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1499066297262686</v>
+        <v>0.1514776141685323</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2704056651671244</v>
+        <v>0.2749559617925473</v>
       </c>
     </row>
     <row r="5">
@@ -6456,19 +6456,19 @@
         <v>8412</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3615</v>
+        <v>3398</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16104</v>
+        <v>15754</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08548731389719713</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03673128203732186</v>
+        <v>0.03453363018697165</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1636506104477778</v>
+        <v>0.1600901167187275</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -6477,19 +6477,19 @@
         <v>6986</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3475</v>
+        <v>3253</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12481</v>
+        <v>12637</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08082597570170419</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04020424964909238</v>
+        <v>0.03763145931045216</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1443889105899981</v>
+        <v>0.146195947807152</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -6498,19 +6498,19 @@
         <v>15399</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9073</v>
+        <v>8851</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>24812</v>
+        <v>23796</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.08330753588707182</v>
+        <v>0.08330753588707181</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04908459716213149</v>
+        <v>0.04788679467273372</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1342331814124132</v>
+        <v>0.1287372351193183</v>
       </c>
     </row>
     <row r="6">
@@ -6527,19 +6527,19 @@
         <v>19814</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11838</v>
+        <v>11887</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>29157</v>
+        <v>30083</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2013547604232441</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1202940674636268</v>
+        <v>0.120798401012885</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2962998006009037</v>
+        <v>0.3057074375169662</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>22</v>
@@ -6548,19 +6548,19 @@
         <v>18231</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12066</v>
+        <v>12245</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25615</v>
+        <v>26077</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2109137426918714</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.139589288059755</v>
+        <v>0.14166114273817</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2963394231651061</v>
+        <v>0.3016800819622589</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>40</v>
@@ -6569,19 +6569,19 @@
         <v>38045</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>27309</v>
+        <v>27457</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>50241</v>
+        <v>50795</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2058248199800637</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1477397686819452</v>
+        <v>0.1485439677786118</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2718047324748057</v>
+        <v>0.2748016472404207</v>
       </c>
     </row>
     <row r="7">
@@ -6598,19 +6598,19 @@
         <v>21723</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14334</v>
+        <v>13871</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32029</v>
+        <v>31484</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.220753316448533</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1456622886320033</v>
+        <v>0.1409548308215839</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3254776607724651</v>
+        <v>0.3199446374126436</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -6619,19 +6619,19 @@
         <v>17191</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12043</v>
+        <v>12176</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25554</v>
+        <v>24573</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1988811706628794</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1393273304661446</v>
+        <v>0.1408587145900149</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.295632966844904</v>
+        <v>0.2842901828367352</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -6640,19 +6640,19 @@
         <v>38914</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29058</v>
+        <v>28828</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>50493</v>
+        <v>50239</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2105252616671998</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1572067912047113</v>
+        <v>0.1559628761817704</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2731703638452044</v>
+        <v>0.271793938372876</v>
       </c>
     </row>
     <row r="8">
@@ -6669,19 +6669,19 @@
         <v>29433</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19062</v>
+        <v>19489</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>41598</v>
+        <v>41998</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2990955814333445</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1937052442507415</v>
+        <v>0.1980519358298895</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4227252625108895</v>
+        <v>0.4267848811709854</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>31</v>
@@ -6690,19 +6690,19 @@
         <v>25527</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>18478</v>
+        <v>18449</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>34082</v>
+        <v>33849</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2953174897431701</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2137735458075657</v>
+        <v>0.2134329953264954</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.394292175619355</v>
+        <v>0.3916029238966375</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>51</v>
@@ -6711,19 +6711,19 @@
         <v>54959</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>42058</v>
+        <v>41911</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>69285</v>
+        <v>69501</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2973288353100011</v>
+        <v>0.2973288353100012</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2275372594983237</v>
+        <v>0.2267384979723039</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3748329681031295</v>
+        <v>0.3759995952834949</v>
       </c>
     </row>
     <row r="9">
@@ -6815,19 +6815,19 @@
         <v>21079</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13377</v>
+        <v>13810</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30739</v>
+        <v>30920</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2865334156939613</v>
+        <v>0.2865334156939615</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1818329694878134</v>
+        <v>0.1877233701474636</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4178435826848925</v>
+        <v>0.4202977735236627</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -6836,19 +6836,19 @@
         <v>26063</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19067</v>
+        <v>19303</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33819</v>
+        <v>33472</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3899206122841192</v>
+        <v>0.3899206122841191</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2852627631912918</v>
+        <v>0.2887840639429037</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5059664058000624</v>
+        <v>0.5007687713841875</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>49</v>
@@ -6857,19 +6857,19 @@
         <v>47142</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36090</v>
+        <v>36636</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>57993</v>
+        <v>58301</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3357513008832124</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2570415011569477</v>
+        <v>0.2609292007960581</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4130362648896657</v>
+        <v>0.4152289397612077</v>
       </c>
     </row>
     <row r="11">
@@ -6886,19 +6886,19 @@
         <v>12526</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6479</v>
+        <v>6295</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21169</v>
+        <v>21404</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1702659871189394</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08807207330427554</v>
+        <v>0.08557231374384136</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2877610408943022</v>
+        <v>0.290943376658938</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -6907,19 +6907,19 @@
         <v>11903</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6995</v>
+        <v>7070</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>18608</v>
+        <v>18606</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.1780739894277693</v>
+        <v>0.1780739894277691</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1046529860434821</v>
+        <v>0.1057738372610661</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2783956326221658</v>
+        <v>0.2783605120611115</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>25</v>
@@ -6928,19 +6928,19 @@
         <v>24428</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>16191</v>
+        <v>16671</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>34133</v>
+        <v>34553</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1739830176011256</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1153120792787974</v>
+        <v>0.1187360747711405</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2430980520519361</v>
+        <v>0.2460935426751889</v>
       </c>
     </row>
     <row r="12">
@@ -6957,19 +6957,19 @@
         <v>17507</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10378</v>
+        <v>10880</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25087</v>
+        <v>27077</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2379777536219456</v>
+        <v>0.2379777536219457</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1410651282984036</v>
+        <v>0.1478947560887648</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3410108030708949</v>
+        <v>0.3680675981054959</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>21</v>
@@ -6978,19 +6978,19 @@
         <v>14584</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8925</v>
+        <v>9416</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20921</v>
+        <v>21304</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2181964732365003</v>
+        <v>0.2181964732365002</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.133532532783901</v>
+        <v>0.1408642181807937</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3129895058898791</v>
+        <v>0.3187202418448677</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>37</v>
@@ -6999,19 +6999,19 @@
         <v>32092</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>22707</v>
+        <v>23202</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>42784</v>
+        <v>42518</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2285607966000167</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1617220634846782</v>
+        <v>0.1652465443644008</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3047147766733946</v>
+        <v>0.3028208456496432</v>
       </c>
     </row>
     <row r="13">
@@ -7028,19 +7028,19 @@
         <v>8607</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4094</v>
+        <v>3618</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16339</v>
+        <v>15454</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.11699666417688</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05564417080045437</v>
+        <v>0.04917379954976794</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2221006962905034</v>
+        <v>0.2100706068153298</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -7049,19 +7049,19 @@
         <v>8278</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4460</v>
+        <v>3954</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14361</v>
+        <v>13561</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1238470133555536</v>
+        <v>0.1238470133555535</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06673103397806988</v>
+        <v>0.05916201034795346</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2148480808635172</v>
+        <v>0.2028839998412252</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -7070,19 +7070,19 @@
         <v>16885</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10581</v>
+        <v>10497</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25114</v>
+        <v>25690</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1202578000863755</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07536036702336797</v>
+        <v>0.07476296367856568</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1788676003310117</v>
+        <v>0.1829711911362087</v>
       </c>
     </row>
     <row r="14">
@@ -7099,19 +7099,19 @@
         <v>13847</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7111</v>
+        <v>7173</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22233</v>
+        <v>22526</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1882261793882736</v>
+        <v>0.1882261793882737</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09665767678533935</v>
+        <v>0.09750478216101968</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3022200861572975</v>
+        <v>0.3061957758221109</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -7120,19 +7120,19 @@
         <v>6013</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2648</v>
+        <v>2259</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13048</v>
+        <v>12248</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.08996191169605794</v>
+        <v>0.0899619116960579</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03961133378222659</v>
+        <v>0.03378940033484624</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1952055547969484</v>
+        <v>0.1832461821583643</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>18</v>
@@ -7141,19 +7141,19 @@
         <v>19860</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>12578</v>
+        <v>11820</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>30917</v>
+        <v>29258</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1414470848292699</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08958532042277753</v>
+        <v>0.08418439180257099</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2201933955847895</v>
+        <v>0.2083831022353774</v>
       </c>
     </row>
     <row r="15">
@@ -7245,19 +7245,19 @@
         <v>9546</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4031</v>
+        <v>4549</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18455</v>
+        <v>17515</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1377095435720339</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05814947213272306</v>
+        <v>0.06562232547257382</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.266239792191507</v>
+        <v>0.2526823524609149</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -7266,19 +7266,19 @@
         <v>4553</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1501</v>
+        <v>1637</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9467</v>
+        <v>9651</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1630192890024068</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05373522233749146</v>
+        <v>0.05862031070227192</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.338930449848113</v>
+        <v>0.3455375439239907</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -7287,19 +7287,19 @@
         <v>14099</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8039</v>
+        <v>7942</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23230</v>
+        <v>23626</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1449788453406626</v>
+        <v>0.1449788453406627</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08265970371502866</v>
+        <v>0.08167077906540504</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.238866623384974</v>
+        <v>0.2429452376866687</v>
       </c>
     </row>
     <row r="17">
@@ -7316,19 +7316,19 @@
         <v>7396</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3285</v>
+        <v>3477</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14759</v>
+        <v>15669</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1066954322773107</v>
+        <v>0.1066954322773106</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04738761301112666</v>
+        <v>0.05015905036959</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2129189673753771</v>
+        <v>0.226038267019566</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -7337,19 +7337,19 @@
         <v>2411</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>684</v>
+        <v>633</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6381</v>
+        <v>6075</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.08633278986390491</v>
+        <v>0.08633278986390494</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02450210201965711</v>
+        <v>0.02266389976109404</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2284386118447093</v>
+        <v>0.2175118919795083</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -7358,19 +7358,19 @@
         <v>9807</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4672</v>
+        <v>4787</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17586</v>
+        <v>17279</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1008470055154954</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04804024487683375</v>
+        <v>0.049220169615461</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1808299401746502</v>
+        <v>0.1776739013003255</v>
       </c>
     </row>
     <row r="18">
@@ -7387,19 +7387,19 @@
         <v>22188</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13413</v>
+        <v>13362</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>32893</v>
+        <v>32612</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3200959705790564</v>
+        <v>0.3200959705790563</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1934950192190852</v>
+        <v>0.1927626423129115</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4745218186789665</v>
+        <v>0.470470463836613</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -7411,16 +7411,16 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>4698</v>
+        <v>4188</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.04958361029051155</v>
+        <v>0.04958361029051156</v>
       </c>
       <c r="O18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1682081216564192</v>
+        <v>0.1499453551260213</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>18</v>
@@ -7429,19 +7429,19 @@
         <v>23573</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>14089</v>
+        <v>15212</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>35125</v>
+        <v>34890</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.242401155967384</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.144875900303489</v>
+        <v>0.1564273245957164</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3611813006157498</v>
+        <v>0.3587702180663326</v>
       </c>
     </row>
     <row r="19">
@@ -7458,19 +7458,19 @@
         <v>12684</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6659</v>
+        <v>6696</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21051</v>
+        <v>20526</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1829808092058995</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09606314254886199</v>
+        <v>0.09659951997918081</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3036831861713605</v>
+        <v>0.2961078053335145</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -7479,19 +7479,19 @@
         <v>7613</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3841</v>
+        <v>3889</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12493</v>
+        <v>12193</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2725576548958863</v>
+        <v>0.2725576548958865</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1375013674974178</v>
+        <v>0.139249271715817</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4472683688602035</v>
+        <v>0.4365557358745631</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -7500,19 +7500,19 @@
         <v>20297</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12950</v>
+        <v>13163</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29822</v>
+        <v>28654</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2087084928206458</v>
+        <v>0.2087084928206457</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1331657477589656</v>
+        <v>0.1353556802841713</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.306658768367918</v>
+        <v>0.2946499817959439</v>
       </c>
     </row>
     <row r="20">
@@ -7529,19 +7529,19 @@
         <v>17504</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9970</v>
+        <v>9862</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>27957</v>
+        <v>29446</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2525182443656993</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1438343968686289</v>
+        <v>0.1422671232851914</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4033155337413314</v>
+        <v>0.424799992800201</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -7550,19 +7550,19 @@
         <v>11969</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7319</v>
+        <v>7404</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>18177</v>
+        <v>18642</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.4285066559472903</v>
+        <v>0.4285066559472904</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2620534470489479</v>
+        <v>0.2650829313174434</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.650785223495628</v>
+        <v>0.6674475066428779</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>27</v>
@@ -7571,19 +7571,19 @@
         <v>29473</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>19474</v>
+        <v>20865</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>41078</v>
+        <v>42344</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.3030645003558122</v>
+        <v>0.3030645003558121</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2002509796525223</v>
+        <v>0.2145524446586966</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4224023494476688</v>
+        <v>0.4354202148840178</v>
       </c>
     </row>
     <row r="21">
@@ -7675,19 +7675,19 @@
         <v>32141</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22490</v>
+        <v>22141</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45427</v>
+        <v>45057</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2402004379454032</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1680755805124121</v>
+        <v>0.1654721259840036</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3394961782478294</v>
+        <v>0.3367258615094225</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -7696,19 +7696,19 @@
         <v>44422</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>35149</v>
+        <v>34906</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>55149</v>
+        <v>54587</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3879573995059428</v>
+        <v>0.3879573995059429</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3069712688080599</v>
+        <v>0.3048543841283374</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4816439565211423</v>
+        <v>0.4767366285516354</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>79</v>
@@ -7717,19 +7717,19 @@
         <v>76562</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>62187</v>
+        <v>61480</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>91578</v>
+        <v>91720</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3083345652877995</v>
+        <v>0.3083345652877996</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2504442662839105</v>
+        <v>0.2475976008150918</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3688061061493613</v>
+        <v>0.3693788600692363</v>
       </c>
     </row>
     <row r="23">
@@ -7746,19 +7746,19 @@
         <v>12737</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5604</v>
+        <v>5792</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>23960</v>
+        <v>23808</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0951871872070591</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04188068228028614</v>
+        <v>0.04328859175460699</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1790631913394917</v>
+        <v>0.1779239930628987</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>16</v>
@@ -7767,19 +7767,19 @@
         <v>14401</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8891</v>
+        <v>8740</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>22662</v>
+        <v>22492</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1257747450448014</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07765418476888186</v>
+        <v>0.07632723955846664</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.197915477762076</v>
+        <v>0.1964311075034637</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>24</v>
@@ -7788,19 +7788,19 @@
         <v>27138</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>17740</v>
+        <v>18284</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>40369</v>
+        <v>42541</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1092918123888361</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07144222795006867</v>
+        <v>0.07363575255903335</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1625771147982289</v>
+        <v>0.171325202626598</v>
       </c>
     </row>
     <row r="24">
@@ -7817,19 +7817,19 @@
         <v>40445</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>29396</v>
+        <v>29966</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>52921</v>
+        <v>52506</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3022607230496375</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2196892940771377</v>
+        <v>0.2239467500707445</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.395500533946987</v>
+        <v>0.3924003057051934</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>38</v>
@@ -7838,19 +7838,19 @@
         <v>26250</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>18908</v>
+        <v>18716</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>34607</v>
+        <v>34372</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2292588317418042</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1651311352655551</v>
+        <v>0.1634533538253445</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3022403016742911</v>
+        <v>0.3001931477395046</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>75</v>
@@ -7859,19 +7859,19 @@
         <v>66695</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>53939</v>
+        <v>53416</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>82258</v>
+        <v>81210</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.268597874909885</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2172275110147447</v>
+        <v>0.2151209525982639</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.331273333720614</v>
+        <v>0.3270526116806635</v>
       </c>
     </row>
     <row r="25">
@@ -7888,19 +7888,19 @@
         <v>26645</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17557</v>
+        <v>18022</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>38645</v>
+        <v>39686</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1991300365956967</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1312075449427769</v>
+        <v>0.1346870257924949</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2888092636461713</v>
+        <v>0.2965914955409244</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>25</v>
@@ -7909,19 +7909,19 @@
         <v>18379</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12304</v>
+        <v>11981</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26899</v>
+        <v>25742</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1605156812067289</v>
+        <v>0.160515681206729</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1074592035519885</v>
+        <v>0.1046338771474029</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2349202435608753</v>
+        <v>0.2248221662525205</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>49</v>
@@ -7930,19 +7930,19 @@
         <v>45024</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>33714</v>
+        <v>33096</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>59883</v>
+        <v>57597</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1813240707750033</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1357736778881439</v>
+        <v>0.1332871673799352</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2411625636950801</v>
+        <v>0.2319582053065908</v>
       </c>
     </row>
     <row r="26">
@@ -7959,19 +7959,19 @@
         <v>21840</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>14338</v>
+        <v>13777</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>35065</v>
+        <v>32779</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1632216152022036</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1071513123220522</v>
+        <v>0.1029627720097288</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2620568240744072</v>
+        <v>0.244970739741476</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>15</v>
@@ -7980,19 +7980,19 @@
         <v>11049</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6090</v>
+        <v>6526</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>17043</v>
+        <v>17274</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09649334250072254</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05318447716162148</v>
+        <v>0.05699639955855745</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.148841637047737</v>
+        <v>0.150866985178286</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>33</v>
@@ -8001,19 +8001,19 @@
         <v>32889</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>23203</v>
+        <v>23039</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>46314</v>
+        <v>44853</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.132451676638476</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09344280569432065</v>
+        <v>0.09278347291733362</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1865181919313985</v>
+        <v>0.1806351699759839</v>
       </c>
     </row>
     <row r="27">
@@ -8105,19 +8105,19 @@
         <v>38096</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>25820</v>
+        <v>25685</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>51542</v>
+        <v>51357</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.404138310994205</v>
+        <v>0.4041383109942051</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2739168271318781</v>
+        <v>0.2724761380879581</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5467881843481089</v>
+        <v>0.5448192798831977</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>41</v>
@@ -8126,19 +8126,19 @@
         <v>34028</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>26273</v>
+        <v>25959</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>43175</v>
+        <v>42463</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3963795936174577</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3060474682531502</v>
+        <v>0.3023895581251717</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5029263046507335</v>
+        <v>0.4946350901089768</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>63</v>
@@ -8147,19 +8147,19 @@
         <v>72124</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>58053</v>
+        <v>58460</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>88600</v>
+        <v>89317</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4004402352255622</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3223185284523125</v>
+        <v>0.324579813807947</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.491919690286205</v>
+        <v>0.4959004188428587</v>
       </c>
     </row>
     <row r="29">
@@ -8176,19 +8176,19 @@
         <v>10618</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4836</v>
+        <v>4167</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>19611</v>
+        <v>19384</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1126451941374554</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05130621812280282</v>
+        <v>0.04420700805733736</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2080411289268947</v>
+        <v>0.2056382382069443</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>20</v>
@@ -8197,19 +8197,19 @@
         <v>16424</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>10246</v>
+        <v>10477</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>24363</v>
+        <v>24172</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1913205747406445</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1193515712657629</v>
+        <v>0.1220471632235725</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2838008770259262</v>
+        <v>0.2815722114219739</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>28</v>
@@ -8218,19 +8218,19 @@
         <v>27043</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>18967</v>
+        <v>18375</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>37739</v>
+        <v>37838</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1501446292205484</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1053048577758513</v>
+        <v>0.1020220036626176</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2095308264088715</v>
+        <v>0.2100827331283641</v>
       </c>
     </row>
     <row r="30">
@@ -8247,19 +8247,19 @@
         <v>21027</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13550</v>
+        <v>13074</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>31847</v>
+        <v>31090</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2230644105413525</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1437480586390622</v>
+        <v>0.1386910998693916</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.337845740066305</v>
+        <v>0.3298192616843513</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>30</v>
@@ -8268,19 +8268,19 @@
         <v>20578</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>13778</v>
+        <v>14684</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>27086</v>
+        <v>27895</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2397003746031477</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.160491850099669</v>
+        <v>0.1710526143588108</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3155148820985451</v>
+        <v>0.3249404165189585</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>49</v>
@@ -8289,19 +8289,19 @@
         <v>41605</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>30967</v>
+        <v>30334</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>54401</v>
+        <v>53581</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2309936922251156</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1719308963569645</v>
+        <v>0.1684207453267021</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3020435297301343</v>
+        <v>0.2974862905464247</v>
       </c>
     </row>
     <row r="31">
@@ -8318,19 +8318,19 @@
         <v>10511</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>5110</v>
+        <v>5561</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>19180</v>
+        <v>19320</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1115090842174835</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05420780382915628</v>
+        <v>0.05899597946660348</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2034755881648326</v>
+        <v>0.2049560461297558</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>11</v>
@@ -8339,19 +8339,19 @@
         <v>7171</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3776</v>
+        <v>3604</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>12494</v>
+        <v>12148</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.08352837635446185</v>
+        <v>0.08352837635446186</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04397963433494455</v>
+        <v>0.04198363632274519</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1455362335516364</v>
+        <v>0.1415082384978125</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>20</v>
@@ -8360,19 +8360,19 @@
         <v>17682</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>10792</v>
+        <v>11107</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>28644</v>
+        <v>27736</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.09817250128589949</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05991897802757805</v>
+        <v>0.0616666733879489</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1590348501292642</v>
+        <v>0.1539952160033146</v>
       </c>
     </row>
     <row r="32">
@@ -8389,19 +8389,19 @@
         <v>14012</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>7224</v>
+        <v>7007</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>28384</v>
+        <v>27814</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1486430001095035</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07663171979377476</v>
+        <v>0.07433767110220628</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3011067118483198</v>
+        <v>0.295068397904171</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>10</v>
@@ -8410,19 +8410,19 @@
         <v>7646</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3731</v>
+        <v>4070</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>12668</v>
+        <v>13536</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.08907108068428826</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04346618220945443</v>
+        <v>0.04740745031511752</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1475673372902891</v>
+        <v>0.1576722371853929</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>20</v>
@@ -8431,19 +8431,19 @@
         <v>21658</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>13392</v>
+        <v>14286</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>36679</v>
+        <v>36118</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1202489420428743</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0743566374451928</v>
+        <v>0.07931879988054648</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2036483442653219</v>
+        <v>0.2005339000658029</v>
       </c>
     </row>
     <row r="33">
@@ -8535,19 +8535,19 @@
         <v>119884</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>99086</v>
+        <v>98339</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>144529</v>
+        <v>144521</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.2554194014903575</v>
+        <v>0.2554194014903576</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2111094302652452</v>
+        <v>0.2095171022889354</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.307927856606437</v>
+        <v>0.3079104428195921</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>152</v>
@@ -8556,19 +8556,19 @@
         <v>127569</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>110513</v>
+        <v>110432</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>145676</v>
+        <v>145082</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3343359667285211</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2896371597364422</v>
+        <v>0.2894248314641734</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.381793773382262</v>
+        <v>0.3802366180867152</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>242</v>
@@ -8577,19 +8577,19 @@
         <v>247452</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>222585</v>
+        <v>216622</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>279242</v>
+        <v>275585</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.2908062000794484</v>
+        <v>0.2908062000794485</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2615817763507583</v>
+        <v>0.2545746976899255</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3281658993122563</v>
+        <v>0.3238681969791273</v>
       </c>
     </row>
     <row r="35">
@@ -8606,19 +8606,19 @@
         <v>51689</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>37167</v>
+        <v>36932</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>68086</v>
+        <v>69723</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1101269039258528</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.07918569917158939</v>
+        <v>0.0786856882820524</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1450623058514331</v>
+        <v>0.1485484062718906</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>63</v>
@@ -8627,19 +8627,19 @@
         <v>52126</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>40869</v>
+        <v>40174</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>64770</v>
+        <v>66112</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.136613870923997</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.107111304603328</v>
+        <v>0.1052893059877423</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.169751158242155</v>
+        <v>0.1732682079789583</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>102</v>
@@ -8648,19 +8648,19 @@
         <v>103815</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>85447</v>
+        <v>83834</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>127194</v>
+        <v>124346</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1220038649107939</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1004170247769945</v>
+        <v>0.09852158322164545</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1494780795027864</v>
+        <v>0.1461321586246057</v>
       </c>
     </row>
     <row r="36">
@@ -8677,19 +8677,19 @@
         <v>120981</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>100466</v>
+        <v>98679</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>142501</v>
+        <v>143566</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2577582141947888</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2140491771130965</v>
+        <v>0.2102411200656697</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3036077447235804</v>
+        <v>0.3058758103486042</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>113</v>
@@ -8698,19 +8698,19 @@
         <v>81028</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>67790</v>
+        <v>67747</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>97635</v>
+        <v>96284</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2123615190334286</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1776673656782375</v>
+        <v>0.1775539000851442</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2558854137952283</v>
+        <v>0.2523442937435703</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>219</v>
@@ -8719,19 +8719,19 @@
         <v>202010</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>176784</v>
+        <v>178191</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>229511</v>
+        <v>230105</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2374019847588358</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2077569356841921</v>
+        <v>0.209410416546017</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2697212817444045</v>
+        <v>0.2704202546010669</v>
       </c>
     </row>
     <row r="37">
@@ -8748,19 +8748,19 @@
         <v>80170</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>64387</v>
+        <v>64854</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>100197</v>
+        <v>100825</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1708078423820307</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1371798310949884</v>
+        <v>0.1381747429807271</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2134751363640213</v>
+        <v>0.2148147000836142</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>82</v>
@@ -8769,19 +8769,19 @@
         <v>58632</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>48120</v>
+        <v>47282</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>71417</v>
+        <v>73802</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.1536636712128062</v>
+        <v>0.1536636712128061</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1261151217651068</v>
+        <v>0.1239193172720223</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1871708065134537</v>
+        <v>0.1934219306987224</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>156</v>
@@ -8790,19 +8790,19 @@
         <v>138802</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>119263</v>
+        <v>118020</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>162355</v>
+        <v>159846</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1631202633507925</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1401579854735429</v>
+        <v>0.1386972042135861</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1907996235581152</v>
+        <v>0.1878512110712796</v>
       </c>
     </row>
     <row r="38">
@@ -8819,19 +8819,19 @@
         <v>96635</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>77477</v>
+        <v>75896</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>119218</v>
+        <v>117589</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2058876380069702</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1650686558619767</v>
+        <v>0.1617003313430008</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2540006936049293</v>
+        <v>0.2505310373134962</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>77</v>
@@ -8840,19 +8840,19 @@
         <v>62203</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>50059</v>
+        <v>48651</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>77194</v>
+        <v>77516</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1630249721012471</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1311959537342872</v>
+        <v>0.1275073910333781</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2023124485480523</v>
+        <v>0.203155873227862</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>149</v>
@@ -8861,19 +8861,19 @@
         <v>158839</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>133246</v>
+        <v>134069</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>183980</v>
+        <v>186529</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1866676869001294</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1565913898538922</v>
+        <v>0.1575575244246548</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2162137802847926</v>
+        <v>0.219209352044489</v>
       </c>
     </row>
     <row r="39">
